--- a/medicine/Psychotrope/Malbo_gentile/Malbo_gentile.xlsx
+++ b/medicine/Psychotrope/Malbo_gentile/Malbo_gentile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le  malbo gentile  est un cépage italien de raisins noirs.
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cépage Malbo gentile provient probablement de la région d'Émilie-Romagne. 
 Il est classé cépage d'appoint en DOC Colli di Scandiano e di Canossa Lambrusco Grasparossa, Colli di Scandiano e di Canossa Lambrusco Grasparossa frizzante, Colli di Scandiano e di Canossa Lambrusco Montericco rosato, Colli di Scandiano e di Canossa Lambrusco Montericco rosato frizzante, Colli di Scandiano e di Canossa Lambrusco Montericco rosso, Colli di Scandiano e di Canossa Lambrusco Montericco rosso frizzante, Colli di Scandiano e di Canossa Malbo gentile, Colli di Scandiano e di Canossa Malbo gentile frizzante, Colli di Scandiano e di Canossa Malbo gentile novello, Colli di Scandiano e di Canossa Marzemino, Colli di Scandiano e di Canossa Marzemino frizzante, Reggiano rosso et Reggiano rosso novello.
@@ -545,7 +559,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Feuilles adultes moyennes, entière ou à 3 lobes.</t>
         </is>
@@ -575,7 +591,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de deuxième époque : 20 jours après le chasselas.
 </t>
@@ -606,7 +624,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes sont grandes et les baies sont de taille moyenne. La grappe est pyramidale et ailée. Le cépage est d'une vigueur moyenne. Il est assez sensible au mildiou et à l'oïdium. 
 Vinifié en vin mono-cépage, il convient à la production de vins légers du style novello.
@@ -638,7 +658,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le  malbo gentile  est connu sous les noms de malbo, fortana, amabile di Genova et tubino.
 </t>
